--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Payroll.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Payroll.xlsx
@@ -9,9 +9,8 @@
   <sheets>
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="$Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="#Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="#Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'~Sheet1'!$A$1:$K$1</definedName>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="298">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -444,144 +443,344 @@
     <t>SURNAME</t>
   </si>
   <si>
+    <t>Payroll number 51402836 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51402836</t>
   </si>
   <si>
+    <t>Payroll number 51403750 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51403750</t>
   </si>
   <si>
+    <t>Payroll number 51424681 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51424681</t>
   </si>
   <si>
+    <t>Payroll number 51497413 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51497413</t>
   </si>
   <si>
+    <t>Payroll number 51503816 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51503816</t>
   </si>
   <si>
+    <t>Payroll number 51507876 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51507876</t>
   </si>
   <si>
+    <t>Payroll number 51597521 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51597521</t>
   </si>
   <si>
+    <t>Payroll number 51687872 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51687872</t>
   </si>
   <si>
+    <t>Payroll number 51712951 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51712951</t>
   </si>
   <si>
+    <t>Payroll number @@## does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Payroll number 51427025 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51427025</t>
   </si>
   <si>
+    <t>Payroll number 51427092 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51427092</t>
   </si>
   <si>
+    <t>Payroll number 51427724 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51427724</t>
   </si>
   <si>
+    <t>Payroll number 51458626 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51458626</t>
   </si>
   <si>
+    <t>Payroll number !@() does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Payroll number 51771520 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51771520</t>
   </si>
   <si>
+    <t>Payroll number 51783371 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51783371</t>
   </si>
   <si>
+    <t>Payroll number 51790874 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51790874</t>
   </si>
   <si>
+    <t>Payroll number !(@) does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Payroll number 51808645 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51808645</t>
   </si>
   <si>
+    <t>Payroll number 51813656 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813656</t>
   </si>
   <si>
+    <t>Payroll number 51813659 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813659</t>
   </si>
   <si>
+    <t>Payroll number 51813664 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813664</t>
   </si>
   <si>
+    <t>Payroll number 51813665 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813665</t>
   </si>
   <si>
+    <t>Payroll number 51813669 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813669</t>
   </si>
   <si>
+    <t>Payroll number 51813670 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813670</t>
   </si>
   <si>
+    <t>Payroll number 51813671 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813671</t>
   </si>
   <si>
+    <t>Payroll number 51813673 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813673</t>
   </si>
   <si>
+    <t>Payroll number 51813674 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813674</t>
   </si>
   <si>
+    <t>Payroll number 51813675 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813675</t>
   </si>
   <si>
+    <t>Payroll number 51813676 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813676</t>
   </si>
   <si>
+    <t>Payroll number 51813677 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813677</t>
   </si>
   <si>
+    <t>Payroll number 51813679 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813679</t>
   </si>
   <si>
+    <t>Payroll number 51813681 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813681</t>
   </si>
   <si>
+    <t>Payroll number 51813682 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813682</t>
   </si>
   <si>
+    <t>Payroll number 51813683 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813683</t>
   </si>
   <si>
+    <t>Payroll number 51813684 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813684</t>
   </si>
   <si>
+    <t>Payroll number 51813686 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813686</t>
   </si>
   <si>
+    <t>Payroll number 51813692 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813692</t>
   </si>
   <si>
+    <t>Payroll number 51813693 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813693</t>
   </si>
   <si>
+    <t>Payroll number 51813694 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813694</t>
   </si>
   <si>
+    <t>Payroll number 51813706 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813706</t>
   </si>
   <si>
+    <t>Payroll number 51813719 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813719</t>
   </si>
   <si>
+    <t>Payroll number 51813722 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813722</t>
   </si>
   <si>
+    <t>Payroll number 51813733 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813733</t>
   </si>
   <si>
+    <t>Payroll number 51813739 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51813739</t>
   </si>
   <si>
+    <t>Payroll number 51851130 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51851130</t>
   </si>
   <si>
+    <t>Payroll number 51565085 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51565085</t>
   </si>
   <si>
+    <t>Payroll number 51681932 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51681932</t>
   </si>
   <si>
+    <t>Payroll number 51850630 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>51850630</t>
   </si>
   <si>
@@ -597,19 +796,175 @@
     <t>29328</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1161520</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>ILIM Test 2</t>
+  </si>
+  <si>
+    <t>1158565</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>7,433.97</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1155233</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>4,282.75</t>
+  </si>
+  <si>
+    <t>ILIM R. O'Brien TVIN</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -619,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,8 +1036,16 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,8 +1056,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,18 +1092,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +1166,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -876,18 +1234,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10106,7 +10463,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="33"/>
+    <col min="1" max="1" width="56.375" style="33"/>
     <col min="2" max="16384" width="9.25" style="33"/>
   </cols>
   <sheetData>
@@ -10133,10 +10490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="B2" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>9</v>
@@ -10154,10 +10513,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="B3" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>11</v>
@@ -10175,10 +10536,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="36" t="s">
+        <v>144</v>
+      </c>
       <c r="B4" s="33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>13</v>
@@ -10196,10 +10559,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="36" t="s">
+        <v>146</v>
+      </c>
       <c r="B5" s="33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>15</v>
@@ -10217,10 +10582,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="36" t="s">
+        <v>148</v>
+      </c>
       <c r="B6" s="33" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>17</v>
@@ -10238,10 +10605,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="B7" s="33" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>19</v>
@@ -10259,10 +10628,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="36" t="s">
+        <v>152</v>
+      </c>
       <c r="B8" s="33" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>21</v>
@@ -10280,10 +10651,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="36" t="s">
+        <v>154</v>
+      </c>
       <c r="B9" s="33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>23</v>
@@ -10301,10 +10674,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="B10" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>25</v>
@@ -10322,8 +10697,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="36" t="s">
+        <v>158</v>
+      </c>
       <c r="B11" s="33" t="s">
         <v>27</v>
       </c>
@@ -10343,10 +10720,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="36" t="s">
+        <v>159</v>
+      </c>
       <c r="B12" s="33" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>30</v>
@@ -10364,10 +10743,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="36" t="s">
+        <v>161</v>
+      </c>
       <c r="B13" s="33" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>32</v>
@@ -10385,10 +10766,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="B14" s="33" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>34</v>
@@ -10406,10 +10789,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="B15" s="33" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>36</v>
@@ -10427,8 +10812,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="B16" s="33" t="s">
         <v>38</v>
       </c>
@@ -10448,10 +10835,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="B17" s="33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>41</v>
@@ -10469,10 +10858,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="36" t="s">
+        <v>170</v>
+      </c>
       <c r="B18" s="33" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -10490,10 +10881,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="36" t="s">
+        <v>172</v>
+      </c>
       <c r="B19" s="33" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>45</v>
@@ -10511,8 +10904,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="36" t="s">
+        <v>174</v>
+      </c>
       <c r="B20" s="33" t="s">
         <v>47</v>
       </c>
@@ -10532,10 +10927,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="B21" s="33" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>49</v>
@@ -10553,10 +10950,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="36" t="s">
+        <v>177</v>
+      </c>
       <c r="B22" s="33" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>51</v>
@@ -10574,10 +10973,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="36" t="s">
+        <v>179</v>
+      </c>
       <c r="B23" s="33" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>53</v>
@@ -10595,10 +10996,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="B24" s="33" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>55</v>
@@ -10616,10 +11019,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="36" t="s">
+        <v>183</v>
+      </c>
       <c r="B25" s="33" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>57</v>
@@ -10637,10 +11042,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="36" t="s">
+        <v>185</v>
+      </c>
       <c r="B26" s="33" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>59</v>
@@ -10658,10 +11065,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="B27" s="33" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>61</v>
@@ -10679,10 +11088,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="B28" s="33" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -10700,10 +11111,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="36" t="s">
+        <v>191</v>
+      </c>
       <c r="B29" s="33" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>64</v>
@@ -10721,10 +11134,12 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="36" t="s">
+        <v>193</v>
+      </c>
       <c r="B30" s="33" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>66</v>
@@ -10742,10 +11157,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="36" t="s">
+        <v>195</v>
+      </c>
       <c r="B31" s="33" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>68</v>
@@ -10763,10 +11180,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="36" t="s">
+        <v>197</v>
+      </c>
       <c r="B32" s="33" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>70</v>
@@ -10784,10 +11203,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="36" t="s">
+        <v>199</v>
+      </c>
       <c r="B33" s="33" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>32</v>
@@ -10805,10 +11226,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="36" t="s">
+        <v>201</v>
+      </c>
       <c r="B34" s="33" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>32</v>
@@ -10826,10 +11249,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="36" t="s">
+        <v>203</v>
+      </c>
       <c r="B35" s="33" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>74</v>
@@ -10847,10 +11272,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="36" t="s">
+        <v>205</v>
+      </c>
       <c r="B36" s="33" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>74</v>
@@ -10868,10 +11295,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="36" t="s">
+        <v>207</v>
+      </c>
       <c r="B37" s="33" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>77</v>
@@ -10889,10 +11318,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="36"/>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="36" t="s">
+        <v>209</v>
+      </c>
       <c r="B38" s="33" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>79</v>
@@ -10910,10 +11341,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="36"/>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="36" t="s">
+        <v>211</v>
+      </c>
       <c r="B39" s="33" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>81</v>
@@ -10931,10 +11364,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="36" t="s">
+        <v>213</v>
+      </c>
       <c r="B40" s="33" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>83</v>
@@ -10952,10 +11387,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="36" t="s">
+        <v>215</v>
+      </c>
       <c r="B41" s="33" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>85</v>
@@ -10973,10 +11410,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="36"/>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="B42" s="33" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>87</v>
@@ -10994,10 +11433,12 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="36" t="s">
+        <v>219</v>
+      </c>
       <c r="B43" s="33" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>89</v>
@@ -11015,10 +11456,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="B44" s="33" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>91</v>
@@ -11036,10 +11479,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="36" t="s">
+        <v>223</v>
+      </c>
       <c r="B45" s="33" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>93</v>
@@ -11057,10 +11502,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="B46" s="33" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>95</v>
@@ -11078,10 +11525,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="36" t="s">
+        <v>227</v>
+      </c>
       <c r="B47" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>97</v>
@@ -11099,10 +11548,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25">
-      <c r="A48" s="36"/>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="36" t="s">
+        <v>229</v>
+      </c>
       <c r="B48" s="33" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>99</v>
@@ -11120,10 +11571,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.25">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="36" t="s">
+        <v>231</v>
+      </c>
       <c r="B49" s="33" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>66</v>
@@ -11141,10 +11594,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="B50" s="33" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>102</v>
@@ -11162,10 +11617,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="36" t="s">
+        <v>235</v>
+      </c>
       <c r="B51" s="33" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>104</v>
@@ -11191,38 +11648,356 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="17.75" style="33"/>
+    <col min="2" max="2" width="14.125" style="33"/>
+    <col min="3" max="3" width="8.25" style="33"/>
+    <col min="4" max="4" width="15.75" style="33"/>
+    <col min="5" max="5" width="13.25" style="33"/>
+    <col min="6" max="6" width="12.625" style="33"/>
+    <col min="7" max="7" width="15.75" style="33"/>
+    <col min="8" max="8" width="10.5" style="33"/>
+    <col min="9" max="9" width="22.125" style="33"/>
+    <col min="10" max="16384" width="9.25" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="37"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>195</v>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="33">
+        <v>12894.0</v>
+      </c>
+      <c r="B2" s="33">
+        <v>16134.0</v>
+      </c>
+      <c r="C2" s="33">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -11232,67 +12007,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9.25" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="33">
-        <v>12894.0</v>
-      </c>
-      <c r="B2" s="33">
-        <v>16134.0</v>
-      </c>
-      <c r="C2" s="33">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Payroll.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Payroll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="190">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -434,353 +434,150 @@
     <t>Garrafrauns@collooney.ballycullane</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
-  </si>
-  <si>
     <t>FORENAME</t>
   </si>
   <si>
     <t>SURNAME</t>
   </si>
   <si>
-    <t>Payroll number 51402836 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51402836</t>
   </si>
   <si>
-    <t>Payroll number 51403750 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51403750</t>
   </si>
   <si>
-    <t>Payroll number 51424681 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51424681</t>
   </si>
   <si>
-    <t>Payroll number 51497413 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51497413</t>
   </si>
   <si>
-    <t>Payroll number 51503816 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51503816</t>
   </si>
   <si>
-    <t>Payroll number 51507876 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51507876</t>
   </si>
   <si>
-    <t>Payroll number 51597521 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51597521</t>
   </si>
   <si>
-    <t>Payroll number 51687872 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51687872</t>
   </si>
   <si>
-    <t>Payroll number 51712951 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51712951</t>
   </si>
   <si>
-    <t>Payroll number @@## does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Payroll number 51427025 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51427025</t>
   </si>
   <si>
-    <t>Payroll number 51427092 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51427092</t>
   </si>
   <si>
-    <t>Payroll number 51427724 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51427724</t>
   </si>
   <si>
-    <t>Payroll number 51458626 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51458626</t>
   </si>
   <si>
-    <t>Payroll number !@() does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Payroll number 51771520 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51771520</t>
   </si>
   <si>
-    <t>Payroll number 51783371 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51783371</t>
   </si>
   <si>
-    <t>Payroll number 51790874 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51790874</t>
   </si>
   <si>
-    <t>Payroll number !(@) does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Payroll number 51808645 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51808645</t>
   </si>
   <si>
-    <t>Payroll number 51813656 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813656</t>
   </si>
   <si>
-    <t>Payroll number 51813659 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813659</t>
   </si>
   <si>
-    <t>Payroll number 51813664 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813664</t>
   </si>
   <si>
-    <t>Payroll number 51813665 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813665</t>
   </si>
   <si>
-    <t>Payroll number 51813669 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813669</t>
   </si>
   <si>
-    <t>Payroll number 51813670 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813670</t>
   </si>
   <si>
-    <t>Payroll number 51813671 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813671</t>
   </si>
   <si>
-    <t>Payroll number 51813673 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813673</t>
   </si>
   <si>
-    <t>Payroll number 51813674 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813674</t>
   </si>
   <si>
-    <t>Payroll number 51813675 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813675</t>
   </si>
   <si>
-    <t>Payroll number 51813676 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813676</t>
   </si>
   <si>
-    <t>Payroll number 51813677 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813677</t>
   </si>
   <si>
-    <t>Payroll number 51813679 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813679</t>
   </si>
   <si>
-    <t>Payroll number 51813681 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813681</t>
   </si>
   <si>
-    <t>Payroll number 51813682 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813682</t>
   </si>
   <si>
-    <t>Payroll number 51813683 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813683</t>
   </si>
   <si>
-    <t>Payroll number 51813684 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813684</t>
   </si>
   <si>
-    <t>Payroll number 51813686 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813686</t>
   </si>
   <si>
-    <t>Payroll number 51813692 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813692</t>
   </si>
   <si>
-    <t>Payroll number 51813693 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813693</t>
   </si>
   <si>
-    <t>Payroll number 51813694 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813694</t>
   </si>
   <si>
-    <t>Payroll number 51813706 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813706</t>
   </si>
   <si>
-    <t>Payroll number 51813719 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813719</t>
   </si>
   <si>
-    <t>Payroll number 51813722 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813722</t>
   </si>
   <si>
-    <t>Payroll number 51813733 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813733</t>
   </si>
   <si>
-    <t>Payroll number 51813739 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51813739</t>
   </si>
   <si>
-    <t>Payroll number 51851130 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51851130</t>
   </si>
   <si>
-    <t>Payroll number 51565085 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51565085</t>
   </si>
   <si>
-    <t>Payroll number 51681932 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51681932</t>
   </si>
   <si>
-    <t>Payroll number 51850630 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>51850630</t>
   </si>
   <si>
@@ -794,177 +591,6 @@
   </si>
   <si>
     <t>29328</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1161520</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -974,7 +600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,16 +662,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1055,13 +673,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1119,14 +730,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1139,6 +742,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1234,17 +845,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10455,7 +10068,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -10463,1180 +10076,1027 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.375" style="33"/>
+    <col min="1" max="1" width="10.375" style="33"/>
     <col min="2" max="16384" width="9.25" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>138</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="33">
+        <v>239.55</v>
+      </c>
+      <c r="E2" s="33">
+        <v>383.29</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="33">
+        <v>260.24</v>
+      </c>
+      <c r="E3" s="33">
+        <v>780.71</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="33">
-        <v>239.55</v>
-      </c>
-      <c r="F2" s="33">
-        <v>383.29</v>
-      </c>
-      <c r="G2" s="33">
+      <c r="B4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="33">
+        <v>129.5</v>
+      </c>
+      <c r="E4" s="33">
+        <v>431.68</v>
+      </c>
+      <c r="F4" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="36" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="33">
-        <v>260.24</v>
-      </c>
-      <c r="F3" s="33">
-        <v>780.71</v>
-      </c>
-      <c r="G3" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="33">
-        <v>129.5</v>
-      </c>
-      <c r="F4" s="33">
-        <v>431.68</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="36" t="s">
-        <v>146</v>
-      </c>
       <c r="B5" s="33" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="33" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" s="33">
+        <v>252.82</v>
       </c>
       <c r="E5" s="33">
         <v>252.82</v>
       </c>
       <c r="F5" s="33">
-        <v>252.82</v>
-      </c>
-      <c r="G5" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="36" t="s">
-        <v>148</v>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="33" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="33">
+        <v>316.35</v>
+      </c>
       <c r="E6" s="33">
-        <v>316.35</v>
+        <v>500.0</v>
       </c>
       <c r="F6" s="33">
-        <v>500.0</v>
-      </c>
-      <c r="G6" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="36" t="s">
-        <v>150</v>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="33" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="33">
+        <v>300.03</v>
+      </c>
       <c r="E7" s="33">
-        <v>300.03</v>
+        <v>540.05</v>
       </c>
       <c r="F7" s="33">
-        <v>540.05</v>
-      </c>
-      <c r="G7" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="36" t="s">
-        <v>152</v>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="33" t="s">
         <v>22</v>
+      </c>
+      <c r="D8" s="33">
+        <v>241.15</v>
       </c>
       <c r="E8" s="33">
         <v>241.15</v>
       </c>
       <c r="F8" s="33">
-        <v>241.15</v>
-      </c>
-      <c r="G8" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="36" t="s">
-        <v>154</v>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="33" t="s">
         <v>24</v>
+      </c>
+      <c r="D9" s="33">
+        <v>740.85</v>
       </c>
       <c r="E9" s="33">
         <v>740.85</v>
       </c>
       <c r="F9" s="33">
-        <v>740.85</v>
-      </c>
-      <c r="G9" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="36" t="s">
-        <v>156</v>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="33" t="s">
         <v>26</v>
       </c>
+      <c r="D10" s="33">
+        <v>1166.67</v>
+      </c>
       <c r="E10" s="33">
-        <v>1166.67</v>
+        <v>1600.0</v>
       </c>
       <c r="F10" s="33">
-        <v>1600.0</v>
-      </c>
-      <c r="G10" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="36" t="s">
-        <v>158</v>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="33" t="s">
         <v>29</v>
       </c>
+      <c r="D11" s="33">
+        <v>92.42</v>
+      </c>
       <c r="E11" s="33">
-        <v>92.42</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="33">
         <v>0.0</v>
       </c>
-      <c r="G11" s="33">
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="33">
+        <v>541.23</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1041.23</v>
+      </c>
+      <c r="F12" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="33">
-        <v>541.23</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1041.23</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="36" t="s">
-        <v>161</v>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="33" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="33">
+        <v>554.89</v>
       </c>
       <c r="E13" s="33">
         <v>554.89</v>
       </c>
       <c r="F13" s="33">
-        <v>554.89</v>
-      </c>
-      <c r="G13" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="36" t="s">
-        <v>163</v>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="33" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="33">
+        <v>350.95</v>
+      </c>
       <c r="E14" s="33">
-        <v>350.95</v>
+        <v>877.37</v>
       </c>
       <c r="F14" s="33">
-        <v>877.37</v>
-      </c>
-      <c r="G14" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="36" t="s">
-        <v>165</v>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="33" t="s">
         <v>37</v>
       </c>
+      <c r="D15" s="33">
+        <v>156.83</v>
+      </c>
       <c r="E15" s="33">
-        <v>156.83</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="33">
         <v>0.0</v>
       </c>
-      <c r="G15" s="33">
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="33">
+        <v>246.98</v>
+      </c>
+      <c r="E16" s="33">
+        <v>205.82</v>
+      </c>
+      <c r="F16" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="33">
-        <v>246.98</v>
-      </c>
-      <c r="F16" s="33">
-        <v>205.82</v>
-      </c>
-      <c r="G16" s="33">
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="33">
+        <v>625.0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1250.0</v>
+      </c>
+      <c r="F17" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="33">
-        <v>625.0</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1250.0</v>
-      </c>
-      <c r="G17" s="33">
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="33">
+        <v>446.57</v>
+      </c>
+      <c r="E18" s="33">
+        <v>223.29</v>
+      </c>
+      <c r="F18" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="33">
-        <v>446.57</v>
-      </c>
-      <c r="F18" s="33">
-        <v>223.29</v>
-      </c>
-      <c r="G18" s="33">
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="33">
+        <v>343.1</v>
+      </c>
+      <c r="E19" s="33">
+        <v>245.07</v>
+      </c>
+      <c r="F19" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="33">
-        <v>343.1</v>
-      </c>
-      <c r="F19" s="33">
-        <v>245.07</v>
-      </c>
-      <c r="G19" s="33">
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="33">
+        <v>430.82</v>
+      </c>
+      <c r="E20" s="33">
+        <v>307.73</v>
+      </c>
+      <c r="F20" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="33">
-        <v>430.82</v>
-      </c>
-      <c r="F20" s="33">
-        <v>307.73</v>
-      </c>
-      <c r="G20" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="36" t="s">
-        <v>175</v>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="33" t="s">
         <v>50</v>
+      </c>
+      <c r="D21" s="33">
+        <v>150.0</v>
       </c>
       <c r="E21" s="33">
         <v>150.0</v>
       </c>
       <c r="F21" s="33">
-        <v>150.0</v>
-      </c>
-      <c r="G21" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="36" t="s">
-        <v>177</v>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="33" t="s">
         <v>52</v>
+      </c>
+      <c r="D22" s="33">
+        <v>134.54</v>
       </c>
       <c r="E22" s="33">
         <v>134.54</v>
       </c>
       <c r="F22" s="33">
-        <v>134.54</v>
-      </c>
-      <c r="G22" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="36" t="s">
-        <v>179</v>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="37" t="s">
+        <v>157</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="33" t="s">
         <v>54</v>
+      </c>
+      <c r="D23" s="33">
+        <v>132.09</v>
       </c>
       <c r="E23" s="33">
         <v>132.09</v>
       </c>
       <c r="F23" s="33">
-        <v>132.09</v>
-      </c>
-      <c r="G23" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="36" t="s">
-        <v>181</v>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="33" t="s">
         <v>56</v>
+      </c>
+      <c r="D24" s="33">
+        <v>154.42</v>
       </c>
       <c r="E24" s="33">
         <v>154.42</v>
       </c>
       <c r="F24" s="33">
-        <v>154.42</v>
-      </c>
-      <c r="G24" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="36" t="s">
-        <v>183</v>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="33" t="s">
         <v>58</v>
+      </c>
+      <c r="D25" s="33">
+        <v>84.73</v>
       </c>
       <c r="E25" s="33">
         <v>84.73</v>
       </c>
       <c r="F25" s="33">
-        <v>84.73</v>
-      </c>
-      <c r="G25" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="36" t="s">
-        <v>185</v>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="37" t="s">
+        <v>160</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="33" t="s">
         <v>60</v>
+      </c>
+      <c r="D26" s="33">
+        <v>95.3</v>
       </c>
       <c r="E26" s="33">
         <v>95.3</v>
       </c>
       <c r="F26" s="33">
-        <v>95.3</v>
-      </c>
-      <c r="G26" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="36" t="s">
-        <v>187</v>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="33" t="s">
         <v>62</v>
+      </c>
+      <c r="D27" s="33">
+        <v>164.54</v>
       </c>
       <c r="E27" s="33">
         <v>164.54</v>
       </c>
       <c r="F27" s="33">
-        <v>164.54</v>
-      </c>
-      <c r="G27" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="36" t="s">
-        <v>189</v>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="33" t="s">
         <v>63</v>
+      </c>
+      <c r="D28" s="33">
+        <v>145.2</v>
       </c>
       <c r="E28" s="33">
         <v>145.2</v>
       </c>
       <c r="F28" s="33">
-        <v>145.2</v>
-      </c>
-      <c r="G28" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="36" t="s">
-        <v>191</v>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="33" t="s">
         <v>65</v>
+      </c>
+      <c r="D29" s="33">
+        <v>154.41</v>
       </c>
       <c r="E29" s="33">
         <v>154.41</v>
       </c>
       <c r="F29" s="33">
-        <v>154.41</v>
-      </c>
-      <c r="G29" s="33">
         <v>200.0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="36" t="s">
-        <v>193</v>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="33" t="s">
         <v>67</v>
+      </c>
+      <c r="D30" s="33">
+        <v>222.98</v>
       </c>
       <c r="E30" s="33">
         <v>222.98</v>
       </c>
       <c r="F30" s="33">
-        <v>222.98</v>
-      </c>
-      <c r="G30" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="36" t="s">
-        <v>195</v>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="33" t="s">
         <v>69</v>
+      </c>
+      <c r="D31" s="33">
+        <v>87.52</v>
       </c>
       <c r="E31" s="33">
         <v>87.52</v>
       </c>
       <c r="F31" s="33">
-        <v>87.52</v>
-      </c>
-      <c r="G31" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="36" t="s">
-        <v>197</v>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="33" t="s">
         <v>71</v>
+      </c>
+      <c r="D32" s="33">
+        <v>92.47</v>
       </c>
       <c r="E32" s="33">
         <v>92.47</v>
       </c>
       <c r="F32" s="33">
-        <v>92.47</v>
-      </c>
-      <c r="G32" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="36" t="s">
-        <v>199</v>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="D33" s="33">
+        <v>191.56</v>
       </c>
       <c r="E33" s="33">
         <v>191.56</v>
       </c>
       <c r="F33" s="33">
-        <v>191.56</v>
-      </c>
-      <c r="G33" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
-      <c r="A34" s="36" t="s">
-        <v>201</v>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="33" t="s">
         <v>73</v>
+      </c>
+      <c r="D34" s="33">
+        <v>157.85</v>
       </c>
       <c r="E34" s="33">
         <v>157.85</v>
       </c>
       <c r="F34" s="33">
-        <v>157.85</v>
-      </c>
-      <c r="G34" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" s="36" t="s">
-        <v>203</v>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="33" t="s">
         <v>75</v>
+      </c>
+      <c r="D35" s="33">
+        <v>164.75</v>
       </c>
       <c r="E35" s="33">
         <v>164.75</v>
       </c>
       <c r="F35" s="33">
-        <v>164.75</v>
-      </c>
-      <c r="G35" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="36" t="s">
-        <v>205</v>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="33" t="s">
         <v>76</v>
+      </c>
+      <c r="D36" s="33">
+        <v>143.88</v>
       </c>
       <c r="E36" s="33">
         <v>143.88</v>
       </c>
       <c r="F36" s="33">
-        <v>143.88</v>
-      </c>
-      <c r="G36" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="36" t="s">
-        <v>207</v>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="33" t="s">
         <v>78</v>
+      </c>
+      <c r="D37" s="33">
+        <v>151.51</v>
       </c>
       <c r="E37" s="33">
         <v>151.51</v>
       </c>
       <c r="F37" s="33">
-        <v>151.51</v>
-      </c>
-      <c r="G37" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="36" t="s">
-        <v>209</v>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="33" t="s">
         <v>80</v>
+      </c>
+      <c r="D38" s="33">
+        <v>229.54</v>
       </c>
       <c r="E38" s="33">
         <v>229.54</v>
       </c>
       <c r="F38" s="33">
-        <v>229.54</v>
-      </c>
-      <c r="G38" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="36" t="s">
-        <v>211</v>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="33" t="s">
         <v>82</v>
+      </c>
+      <c r="D39" s="33">
+        <v>141.4</v>
       </c>
       <c r="E39" s="33">
         <v>141.4</v>
       </c>
       <c r="F39" s="33">
-        <v>141.4</v>
-      </c>
-      <c r="G39" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="36" t="s">
-        <v>213</v>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="33" t="s">
         <v>84</v>
+      </c>
+      <c r="D40" s="33">
+        <v>132.4</v>
       </c>
       <c r="E40" s="33">
         <v>132.4</v>
       </c>
       <c r="F40" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="33">
         <v>132.4</v>
-      </c>
-      <c r="G40" s="33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="A41" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="E41" s="33">
         <v>132.4</v>
       </c>
       <c r="F41" s="33">
-        <v>132.4</v>
-      </c>
-      <c r="G41" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="36" t="s">
-        <v>217</v>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="33" t="s">
         <v>88</v>
+      </c>
+      <c r="D42" s="33">
+        <v>132.72</v>
       </c>
       <c r="E42" s="33">
         <v>132.72</v>
       </c>
       <c r="F42" s="33">
-        <v>132.72</v>
-      </c>
-      <c r="G42" s="33">
         <v>100.0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="36" t="s">
-        <v>219</v>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="33" t="s">
         <v>90</v>
+      </c>
+      <c r="D43" s="33">
+        <v>279.6</v>
       </c>
       <c r="E43" s="33">
         <v>279.6</v>
       </c>
       <c r="F43" s="33">
-        <v>279.6</v>
-      </c>
-      <c r="G43" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="36" t="s">
-        <v>221</v>
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="33" t="s">
         <v>92</v>
+      </c>
+      <c r="D44" s="33">
+        <v>310.15</v>
       </c>
       <c r="E44" s="33">
         <v>310.15</v>
       </c>
       <c r="F44" s="33">
-        <v>310.15</v>
-      </c>
-      <c r="G44" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="36" t="s">
-        <v>223</v>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="33" t="s">
         <v>94</v>
+      </c>
+      <c r="D45" s="33">
+        <v>99.24</v>
       </c>
       <c r="E45" s="33">
         <v>99.24</v>
       </c>
       <c r="F45" s="33">
-        <v>99.24</v>
-      </c>
-      <c r="G45" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="36" t="s">
-        <v>225</v>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="33" t="s">
         <v>96</v>
+      </c>
+      <c r="D46" s="33">
+        <v>124.49</v>
       </c>
       <c r="E46" s="33">
         <v>124.49</v>
       </c>
       <c r="F46" s="33">
-        <v>124.49</v>
-      </c>
-      <c r="G46" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="36" t="s">
-        <v>227</v>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="33" t="s">
         <v>98</v>
+      </c>
+      <c r="D47" s="33">
+        <v>327.85</v>
       </c>
       <c r="E47" s="33">
         <v>327.85</v>
       </c>
       <c r="F47" s="33">
-        <v>327.85</v>
-      </c>
-      <c r="G47" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="36" t="s">
-        <v>229</v>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="33" t="s">
         <v>100</v>
       </c>
+      <c r="D48" s="33">
+        <v>100.0</v>
+      </c>
       <c r="E48" s="33">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="F48" s="33">
-        <v>600.0</v>
-      </c>
-      <c r="G48" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="36" t="s">
-        <v>231</v>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="33" t="s">
         <v>101</v>
+      </c>
+      <c r="D49" s="33">
+        <v>218.13</v>
       </c>
       <c r="E49" s="33">
         <v>218.13</v>
       </c>
       <c r="F49" s="33">
-        <v>218.13</v>
-      </c>
-      <c r="G49" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="36" t="s">
-        <v>233</v>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="33" t="s">
         <v>103</v>
+      </c>
+      <c r="D50" s="33">
+        <v>595.89</v>
       </c>
       <c r="E50" s="33">
         <v>595.89</v>
       </c>
       <c r="F50" s="33">
-        <v>595.89</v>
-      </c>
-      <c r="G50" s="33">
         <v>0.0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="36" t="s">
-        <v>235</v>
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="33" t="s">
         <v>105</v>
+      </c>
+      <c r="D51" s="33">
+        <v>206.49</v>
       </c>
       <c r="E51" s="33">
         <v>206.49</v>
       </c>
       <c r="F51" s="33">
-        <v>206.49</v>
-      </c>
-      <c r="G51" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -11648,7 +11108,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -11656,16 +11116,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="33"/>
-    <col min="2" max="2" width="14.125" style="33"/>
-    <col min="3" max="3" width="8.25" style="33"/>
-    <col min="4" max="4" width="15.75" style="33"/>
-    <col min="5" max="5" width="13.25" style="33"/>
-    <col min="6" max="6" width="12.625" style="33"/>
-    <col min="7" max="7" width="15.75" style="33"/>
-    <col min="8" max="8" width="10.5" style="33"/>
-    <col min="9" max="9" width="22.125" style="33"/>
-    <col min="10" max="16384" width="9.25" style="33"/>
+    <col min="1" max="16384" width="9.25" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -11692,312 +11143,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="33" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="33" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="33" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
